--- a/UW_Sulfur SI data_AllSpecies.xlsx
+++ b/UW_Sulfur SI data_AllSpecies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\CareyA\PSEMP\GitHub\JuvChinook-2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\CareyA\PSEMP\GitHub\JuvChinook-2016\JuvChinook-Data-merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -515,9 +515,6 @@
     <t>13DUR-TW01</t>
   </si>
   <si>
-    <t>2013 Juvenile Chinook</t>
-  </si>
-  <si>
     <t>13DUR-TW02</t>
   </si>
   <si>
@@ -773,9 +770,6 @@
     <t>16ST-TW_Dfp01r1</t>
   </si>
   <si>
-    <t xml:space="preserve">2016 Juvenile Chinook </t>
-  </si>
-  <si>
     <t>16ST-TW_Dfp01r2</t>
   </si>
   <si>
@@ -1211,9 +1205,6 @@
     <t>16MA6-TM9804C</t>
   </si>
   <si>
-    <t>2016 Blackmouth</t>
-  </si>
-  <si>
     <t>16MA6-TM9806C</t>
   </si>
   <si>
@@ -1785,6 +1776,15 @@
   </si>
   <si>
     <t>d34S_Precision</t>
+  </si>
+  <si>
+    <t>2013_Juvenile_Chinook</t>
+  </si>
+  <si>
+    <t>2016_Blackmouth</t>
+  </si>
+  <si>
+    <t>2016_Juvenile_Chinook</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2120,7 +2122,7 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -2134,46 +2136,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J1" t="s">
+        <v>568</v>
+      </c>
+      <c r="K1" t="s">
         <v>570</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" t="s">
         <v>572</v>
       </c>
-      <c r="J1" t="s">
-        <v>571</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>573</v>
-      </c>
-      <c r="L1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M1" t="s">
-        <v>575</v>
-      </c>
-      <c r="N1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8138,7 +8140,7 @@
         <v>152</v>
       </c>
       <c r="E147" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F147">
         <v>7.4939999999999998</v>
@@ -8176,10 +8178,10 @@
         <v>42903</v>
       </c>
       <c r="D148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E148" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F148">
         <v>7.5330000000000004</v>
@@ -8217,10 +8219,10 @@
         <v>42903</v>
       </c>
       <c r="D149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E149" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F149">
         <v>7.5279999999999996</v>
@@ -8258,10 +8260,10 @@
         <v>42903</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E150" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F150">
         <v>7.54</v>
@@ -8299,10 +8301,10 @@
         <v>42903</v>
       </c>
       <c r="D151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E151" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F151">
         <v>7.55</v>
@@ -8340,10 +8342,10 @@
         <v>42956</v>
       </c>
       <c r="D152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E152" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F152">
         <v>9.2370000000000001</v>
@@ -8381,10 +8383,10 @@
         <v>42907</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E153" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F153">
         <v>7.6920000000000002</v>
@@ -8422,10 +8424,10 @@
         <v>42907</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F154">
         <v>7.5179999999999998</v>
@@ -8463,10 +8465,10 @@
         <v>42907</v>
       </c>
       <c r="D155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E155" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F155">
         <v>7.54</v>
@@ -8504,10 +8506,10 @@
         <v>42907</v>
       </c>
       <c r="D156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E156" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F156">
         <v>7.7039999999999997</v>
@@ -8545,10 +8547,10 @@
         <v>42907</v>
       </c>
       <c r="D157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E157" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F157">
         <v>7.5590000000000002</v>
@@ -8586,10 +8588,10 @@
         <v>42907</v>
       </c>
       <c r="D158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E158" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F158">
         <v>7.6539999999999999</v>
@@ -8627,10 +8629,10 @@
         <v>42907</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E159" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F159">
         <v>7.5990000000000002</v>
@@ -8668,10 +8670,10 @@
         <v>42907</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E160" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F160">
         <v>7.7119999999999997</v>
@@ -8709,10 +8711,10 @@
         <v>42907</v>
       </c>
       <c r="D161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E161" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F161">
         <v>7.7439999999999998</v>
@@ -8750,10 +8752,10 @@
         <v>42907</v>
       </c>
       <c r="D162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E162" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F162">
         <v>7.524</v>
@@ -8791,10 +8793,10 @@
         <v>42907</v>
       </c>
       <c r="D163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E163" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F163">
         <v>7.6429999999999998</v>
@@ -8832,10 +8834,10 @@
         <v>42907</v>
       </c>
       <c r="D164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E164" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F164">
         <v>7.532</v>
@@ -8873,10 +8875,10 @@
         <v>42907</v>
       </c>
       <c r="D165" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E165" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F165">
         <v>7.835</v>
@@ -8914,10 +8916,10 @@
         <v>42907</v>
       </c>
       <c r="D166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E166" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F166">
         <v>7.5810000000000004</v>
@@ -8955,10 +8957,10 @@
         <v>42907</v>
       </c>
       <c r="D167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E167" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F167">
         <v>7.51</v>
@@ -8996,10 +8998,10 @@
         <v>42907</v>
       </c>
       <c r="D168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E168" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F168">
         <v>7.7770000000000001</v>
@@ -9037,10 +9039,10 @@
         <v>42907</v>
       </c>
       <c r="D169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E169" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F169">
         <v>7.87</v>
@@ -9078,10 +9080,10 @@
         <v>42907</v>
       </c>
       <c r="D170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E170" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F170">
         <v>7.5019999999999998</v>
@@ -9119,10 +9121,10 @@
         <v>42907</v>
       </c>
       <c r="D171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E171" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F171">
         <v>7.5259999999999998</v>
@@ -9160,10 +9162,10 @@
         <v>42907</v>
       </c>
       <c r="D172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E172" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F172">
         <v>7.5789999999999997</v>
@@ -9201,10 +9203,10 @@
         <v>42907</v>
       </c>
       <c r="D173" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E173" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F173">
         <v>7.5339999999999998</v>
@@ -9242,10 +9244,10 @@
         <v>42907</v>
       </c>
       <c r="D174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E174" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F174">
         <v>7.5830000000000002</v>
@@ -9283,10 +9285,10 @@
         <v>42907</v>
       </c>
       <c r="D175" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E175" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F175">
         <v>7.5330000000000004</v>
@@ -9324,10 +9326,10 @@
         <v>42907</v>
       </c>
       <c r="D176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E176" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F176">
         <v>7.6340000000000003</v>
@@ -9365,10 +9367,10 @@
         <v>42907</v>
       </c>
       <c r="D177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E177" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F177">
         <v>7.5350000000000001</v>
@@ -9406,10 +9408,10 @@
         <v>42907</v>
       </c>
       <c r="D178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E178" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F178">
         <v>7.5979999999999999</v>
@@ -9447,10 +9449,10 @@
         <v>42907</v>
       </c>
       <c r="D179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E179" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F179">
         <v>7.5640000000000001</v>
@@ -9488,10 +9490,10 @@
         <v>42907</v>
       </c>
       <c r="D180" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E180" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F180">
         <v>7.5190000000000001</v>
@@ -9529,10 +9531,10 @@
         <v>42907</v>
       </c>
       <c r="D181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E181" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F181">
         <v>7.64</v>
@@ -9570,10 +9572,10 @@
         <v>42956</v>
       </c>
       <c r="D182" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E182" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F182">
         <v>7.62</v>
@@ -9611,10 +9613,10 @@
         <v>42933</v>
       </c>
       <c r="D183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E183" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F183">
         <v>8.0380000000000003</v>
@@ -9652,10 +9654,10 @@
         <v>42933</v>
       </c>
       <c r="D184" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E184" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F184">
         <v>7.8120000000000003</v>
@@ -9693,10 +9695,10 @@
         <v>42933</v>
       </c>
       <c r="D185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E185" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F185">
         <v>7.577</v>
@@ -9734,10 +9736,10 @@
         <v>42933</v>
       </c>
       <c r="D186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E186" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F186">
         <v>7.4640000000000004</v>
@@ -9775,10 +9777,10 @@
         <v>42933</v>
       </c>
       <c r="D187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E187" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F187">
         <v>7.8659999999999997</v>
@@ -9816,10 +9818,10 @@
         <v>42933</v>
       </c>
       <c r="D188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E188" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F188">
         <v>7.4740000000000002</v>
@@ -9857,10 +9859,10 @@
         <v>42933</v>
       </c>
       <c r="D189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E189" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F189">
         <v>7.851</v>
@@ -9898,10 +9900,10 @@
         <v>42933</v>
       </c>
       <c r="D190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E190" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F190">
         <v>7.6520000000000001</v>
@@ -9939,10 +9941,10 @@
         <v>42933</v>
       </c>
       <c r="D191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E191" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F191">
         <v>7.6749999999999998</v>
@@ -9980,10 +9982,10 @@
         <v>42933</v>
       </c>
       <c r="D192" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E192" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F192">
         <v>7.9050000000000002</v>
@@ -10021,10 +10023,10 @@
         <v>42933</v>
       </c>
       <c r="D193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E193" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F193">
         <v>8.2520000000000007</v>
@@ -10062,10 +10064,10 @@
         <v>42933</v>
       </c>
       <c r="D194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E194" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F194">
         <v>7.7309999999999999</v>
@@ -10103,10 +10105,10 @@
         <v>42933</v>
       </c>
       <c r="D195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E195" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F195">
         <v>7.968</v>
@@ -10144,10 +10146,10 @@
         <v>42933</v>
       </c>
       <c r="D196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E196" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F196">
         <v>7.7089999999999996</v>
@@ -10185,10 +10187,10 @@
         <v>42949</v>
       </c>
       <c r="D197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E197" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F197">
         <v>7.2569999999999997</v>
@@ -10226,10 +10228,10 @@
         <v>42949</v>
       </c>
       <c r="D198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E198" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F198">
         <v>7.3570000000000002</v>
@@ -10267,10 +10269,10 @@
         <v>42949</v>
       </c>
       <c r="D199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E199" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F199">
         <v>7.5149999999999997</v>
@@ -10308,10 +10310,10 @@
         <v>42949</v>
       </c>
       <c r="D200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E200" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F200">
         <v>7.57</v>
@@ -10349,10 +10351,10 @@
         <v>42949</v>
       </c>
       <c r="D201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E201" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F201">
         <v>8.0440000000000005</v>
@@ -10390,10 +10392,10 @@
         <v>42949</v>
       </c>
       <c r="D202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E202" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F202">
         <v>7.827</v>
@@ -10431,10 +10433,10 @@
         <v>42949</v>
       </c>
       <c r="D203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E203" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F203">
         <v>7.8879999999999999</v>
@@ -10472,10 +10474,10 @@
         <v>42949</v>
       </c>
       <c r="D204" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E204" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F204">
         <v>7.4630000000000001</v>
@@ -10513,10 +10515,10 @@
         <v>42950</v>
       </c>
       <c r="D205" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E205" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F205">
         <v>7.92</v>
@@ -10554,10 +10556,10 @@
         <v>42950</v>
       </c>
       <c r="D206" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E206" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F206">
         <v>7.8380000000000001</v>
@@ -10595,10 +10597,10 @@
         <v>42950</v>
       </c>
       <c r="D207" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E207" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F207">
         <v>7.4870000000000001</v>
@@ -10636,10 +10638,10 @@
         <v>42950</v>
       </c>
       <c r="D208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E208" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F208">
         <v>7.2690000000000001</v>
@@ -10677,10 +10679,10 @@
         <v>42950</v>
       </c>
       <c r="D209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E209" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F209">
         <v>8.0229999999999997</v>
@@ -10718,10 +10720,10 @@
         <v>42950</v>
       </c>
       <c r="D210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E210" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F210">
         <v>7.5439999999999996</v>
@@ -10759,10 +10761,10 @@
         <v>42950</v>
       </c>
       <c r="D211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E211" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F211">
         <v>7.492</v>
@@ -10800,16 +10802,16 @@
         <v>42941</v>
       </c>
       <c r="D212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E212" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F212">
         <v>7.6539999999999999</v>
       </c>
       <c r="G212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H212">
         <v>61.66</v>
@@ -10844,16 +10846,16 @@
         <v>42950</v>
       </c>
       <c r="D213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F213">
         <v>7.4660000000000002</v>
       </c>
       <c r="G213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H213">
         <v>60.631999999999998</v>
@@ -10888,10 +10890,10 @@
         <v>42941</v>
       </c>
       <c r="D214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E214" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F214">
         <v>8.4600000000000009</v>
@@ -10929,10 +10931,10 @@
         <v>42941</v>
       </c>
       <c r="D215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E215" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F215">
         <v>7.4370000000000003</v>
@@ -10970,10 +10972,10 @@
         <v>42941</v>
       </c>
       <c r="D216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E216" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F216">
         <v>7.7160000000000002</v>
@@ -11011,10 +11013,10 @@
         <v>42941</v>
       </c>
       <c r="D217" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E217" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F217">
         <v>7.6340000000000003</v>
@@ -11052,10 +11054,10 @@
         <v>42941</v>
       </c>
       <c r="D218" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E218" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F218">
         <v>7.9550000000000001</v>
@@ -11093,10 +11095,10 @@
         <v>42941</v>
       </c>
       <c r="D219" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E219" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F219">
         <v>7.4880000000000004</v>
@@ -11134,10 +11136,10 @@
         <v>42941</v>
       </c>
       <c r="D220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E220" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F220">
         <v>7.6050000000000004</v>
@@ -11175,10 +11177,10 @@
         <v>42941</v>
       </c>
       <c r="D221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E221" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F221">
         <v>7.42</v>
@@ -11216,10 +11218,10 @@
         <v>42941</v>
       </c>
       <c r="D222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E222" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F222">
         <v>7.4240000000000004</v>
@@ -11257,10 +11259,10 @@
         <v>42941</v>
       </c>
       <c r="D223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E223" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F223">
         <v>7.2190000000000003</v>
@@ -11298,10 +11300,10 @@
         <v>42941</v>
       </c>
       <c r="D224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E224" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F224">
         <v>7.7350000000000003</v>
@@ -11339,10 +11341,10 @@
         <v>42941</v>
       </c>
       <c r="D225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E225" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F225">
         <v>7.4320000000000004</v>
@@ -11380,10 +11382,10 @@
         <v>42941</v>
       </c>
       <c r="D226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E226" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F226">
         <v>7.5039999999999996</v>
@@ -11421,10 +11423,10 @@
         <v>42941</v>
       </c>
       <c r="D227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E227" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F227">
         <v>7.7270000000000003</v>
@@ -11462,10 +11464,10 @@
         <v>42950</v>
       </c>
       <c r="D228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E228" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F228">
         <v>7.9009999999999998</v>
@@ -11503,10 +11505,10 @@
         <v>42950</v>
       </c>
       <c r="D229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E229" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F229">
         <v>7.835</v>
@@ -11544,10 +11546,10 @@
         <v>42950</v>
       </c>
       <c r="D230" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E230" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F230">
         <v>7.7439999999999998</v>
@@ -11585,10 +11587,10 @@
         <v>42950</v>
       </c>
       <c r="D231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E231" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F231">
         <v>7.5510000000000002</v>
@@ -11620,10 +11622,10 @@
         <v>229</v>
       </c>
       <c r="D232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E232" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -11637,10 +11639,10 @@
         <v>42950</v>
       </c>
       <c r="D233" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E233" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F233">
         <v>7.5620000000000003</v>
@@ -11678,10 +11680,10 @@
         <v>42950</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E234" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F234">
         <v>7.6159999999999997</v>
@@ -11719,10 +11721,10 @@
         <v>42950</v>
       </c>
       <c r="D235" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E235" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F235">
         <v>7.7069999999999999</v>
@@ -11760,10 +11762,10 @@
         <v>42950</v>
       </c>
       <c r="D236" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E236" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F236">
         <v>7.6689999999999996</v>
@@ -11801,10 +11803,10 @@
         <v>42950</v>
       </c>
       <c r="D237" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E237" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F237">
         <v>7.6260000000000003</v>
@@ -11842,10 +11844,10 @@
         <v>42950</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E238" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F238">
         <v>7.742</v>
@@ -11883,10 +11885,10 @@
         <v>42950</v>
       </c>
       <c r="D239" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E239" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F239">
         <v>7.6779999999999999</v>
@@ -11924,10 +11926,10 @@
         <v>42950</v>
       </c>
       <c r="D240" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E240" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F240">
         <v>7.5430000000000001</v>
@@ -11965,10 +11967,10 @@
         <v>42950</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E241" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F241">
         <v>7.5170000000000003</v>
@@ -12006,10 +12008,10 @@
         <v>42950</v>
       </c>
       <c r="D242" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E242" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F242">
         <v>7.5090000000000003</v>
@@ -12047,10 +12049,10 @@
         <v>42950</v>
       </c>
       <c r="D243" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E243" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F243">
         <v>7.6429999999999998</v>
@@ -12088,10 +12090,10 @@
         <v>42942</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E244" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F244">
         <v>7.4420000000000002</v>
@@ -12129,10 +12131,10 @@
         <v>42942</v>
       </c>
       <c r="D245" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E245" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F245">
         <v>7.9420000000000002</v>
@@ -12170,10 +12172,10 @@
         <v>42942</v>
       </c>
       <c r="D246" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E246" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F246">
         <v>7.6079999999999997</v>
@@ -12211,10 +12213,10 @@
         <v>42942</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E247" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F247">
         <v>7.7489999999999997</v>
@@ -12252,10 +12254,10 @@
         <v>42942</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E248" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F248">
         <v>7.5810000000000004</v>
@@ -12293,10 +12295,10 @@
         <v>42942</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E249" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F249">
         <v>7.601</v>
@@ -12334,10 +12336,10 @@
         <v>42943</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E250" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F250">
         <v>8.0969999999999995</v>
@@ -12375,10 +12377,10 @@
         <v>42943</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E251" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F251">
         <v>7.3609999999999998</v>
@@ -12416,10 +12418,10 @@
         <v>42943</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E252" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F252">
         <v>7.7149999999999999</v>
@@ -12457,10 +12459,10 @@
         <v>42943</v>
       </c>
       <c r="D253" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E253" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F253">
         <v>7.4080000000000004</v>
@@ -12498,10 +12500,10 @@
         <v>42943</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E254" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F254">
         <v>7.6929999999999996</v>
@@ -12539,10 +12541,10 @@
         <v>42943</v>
       </c>
       <c r="D255" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E255" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F255">
         <v>7.8529999999999998</v>
@@ -12580,10 +12582,10 @@
         <v>42943</v>
       </c>
       <c r="D256" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E256" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F256">
         <v>7.6040000000000001</v>
@@ -12621,10 +12623,10 @@
         <v>42943</v>
       </c>
       <c r="D257" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E257" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F257">
         <v>7.7679999999999998</v>
@@ -12662,10 +12664,10 @@
         <v>42943</v>
       </c>
       <c r="D258" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E258" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F258">
         <v>7.2</v>
@@ -12703,10 +12705,10 @@
         <v>42943</v>
       </c>
       <c r="D259" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E259" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F259">
         <v>7.3449999999999998</v>
@@ -12744,10 +12746,10 @@
         <v>42943</v>
       </c>
       <c r="D260" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E260" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F260">
         <v>7.69</v>
@@ -12785,10 +12787,10 @@
         <v>42943</v>
       </c>
       <c r="D261" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E261" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F261">
         <v>7.7309999999999999</v>
@@ -12826,10 +12828,10 @@
         <v>42943</v>
       </c>
       <c r="D262" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E262" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F262">
         <v>7.7830000000000004</v>
@@ -12867,10 +12869,10 @@
         <v>42943</v>
       </c>
       <c r="D263" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E263" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F263">
         <v>7.3109999999999999</v>
@@ -12908,10 +12910,10 @@
         <v>42943</v>
       </c>
       <c r="D264" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E264" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F264">
         <v>7.1440000000000001</v>
@@ -12949,10 +12951,10 @@
         <v>42950</v>
       </c>
       <c r="D265" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E265" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F265">
         <v>7.9240000000000004</v>
@@ -12990,10 +12992,10 @@
         <v>42950</v>
       </c>
       <c r="D266" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E266" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F266">
         <v>7.5839999999999996</v>
@@ -13031,10 +13033,10 @@
         <v>42950</v>
       </c>
       <c r="D267" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E267" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F267">
         <v>7.8419999999999996</v>
@@ -13072,10 +13074,10 @@
         <v>42950</v>
       </c>
       <c r="D268" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E268" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F268">
         <v>7.6120000000000001</v>
@@ -13113,10 +13115,10 @@
         <v>42950</v>
       </c>
       <c r="D269" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E269" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F269">
         <v>7.7939999999999996</v>
@@ -13154,10 +13156,10 @@
         <v>42950</v>
       </c>
       <c r="D270" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E270" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F270">
         <v>7.7249999999999996</v>
@@ -13195,10 +13197,10 @@
         <v>42950</v>
       </c>
       <c r="D271" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E271" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F271">
         <v>7.51</v>
@@ -13236,10 +13238,10 @@
         <v>42950</v>
       </c>
       <c r="D272" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E272" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F272">
         <v>7.633</v>
@@ -13277,10 +13279,10 @@
         <v>42951</v>
       </c>
       <c r="D273" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E273" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F273">
         <v>7.7460000000000004</v>
@@ -13318,10 +13320,10 @@
         <v>42951</v>
       </c>
       <c r="D274" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E274" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F274">
         <v>7.835</v>
@@ -13359,10 +13361,10 @@
         <v>42951</v>
       </c>
       <c r="D275" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E275" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F275">
         <v>7.7359999999999998</v>
@@ -13400,10 +13402,10 @@
         <v>42951</v>
       </c>
       <c r="D276" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E276" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F276">
         <v>7.9420000000000002</v>
@@ -13441,10 +13443,10 @@
         <v>42951</v>
       </c>
       <c r="D277" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E277" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F277">
         <v>7.8739999999999997</v>
@@ -13482,10 +13484,10 @@
         <v>42951</v>
       </c>
       <c r="D278" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E278" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F278">
         <v>7.5529999999999999</v>
@@ -13523,10 +13525,10 @@
         <v>42951</v>
       </c>
       <c r="D279" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E279" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F279">
         <v>7.6879999999999997</v>
@@ -13564,10 +13566,10 @@
         <v>42944</v>
       </c>
       <c r="D280" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E280" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F280">
         <v>7.6950000000000003</v>
@@ -13605,10 +13607,10 @@
         <v>42944</v>
       </c>
       <c r="D281" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E281" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F281">
         <v>7.351</v>
@@ -13646,10 +13648,10 @@
         <v>42944</v>
       </c>
       <c r="D282" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E282" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F282">
         <v>7.343</v>
@@ -13687,10 +13689,10 @@
         <v>42944</v>
       </c>
       <c r="D283" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E283" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F283">
         <v>7.5259999999999998</v>
@@ -13728,10 +13730,10 @@
         <v>42944</v>
       </c>
       <c r="D284" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E284" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F284">
         <v>7.5970000000000004</v>
@@ -13769,10 +13771,10 @@
         <v>42944</v>
       </c>
       <c r="D285" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E285" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F285">
         <v>7.6820000000000004</v>
@@ -13810,10 +13812,10 @@
         <v>42944</v>
       </c>
       <c r="D286" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E286" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F286">
         <v>7.6239999999999997</v>
@@ -13851,10 +13853,10 @@
         <v>42944</v>
       </c>
       <c r="D287" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E287" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F287">
         <v>7.3140000000000001</v>
@@ -13892,10 +13894,10 @@
         <v>42944</v>
       </c>
       <c r="D288" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E288" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F288">
         <v>7.7850000000000001</v>
@@ -13933,10 +13935,10 @@
         <v>42944</v>
       </c>
       <c r="D289" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E289" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F289">
         <v>8.0269999999999992</v>
@@ -13974,10 +13976,10 @@
         <v>42944</v>
       </c>
       <c r="D290" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E290" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F290">
         <v>7.9969999999999999</v>
@@ -14015,10 +14017,10 @@
         <v>42944</v>
       </c>
       <c r="D291" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E291" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F291">
         <v>7.6849999999999996</v>
@@ -14056,10 +14058,10 @@
         <v>42944</v>
       </c>
       <c r="D292" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E292" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F292">
         <v>7.77</v>
@@ -14097,10 +14099,10 @@
         <v>42944</v>
       </c>
       <c r="D293" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E293" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F293">
         <v>7.55</v>
@@ -14138,10 +14140,10 @@
         <v>42944</v>
       </c>
       <c r="D294" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E294" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F294">
         <v>7.1580000000000004</v>
@@ -14179,10 +14181,10 @@
         <v>42944</v>
       </c>
       <c r="D295" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E295" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F295">
         <v>7.2080000000000002</v>
@@ -14220,10 +14222,10 @@
         <v>42944</v>
       </c>
       <c r="D296" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E296" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F296">
         <v>7.173</v>
@@ -14261,10 +14263,10 @@
         <v>42944</v>
       </c>
       <c r="D297" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E297" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F297">
         <v>7.4779999999999998</v>
@@ -14302,10 +14304,10 @@
         <v>42944</v>
       </c>
       <c r="D298" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E298" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F298">
         <v>7.5220000000000002</v>
@@ -14343,10 +14345,10 @@
         <v>42944</v>
       </c>
       <c r="D299" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E299" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F299">
         <v>7.1319999999999997</v>
@@ -14384,10 +14386,10 @@
         <v>42944</v>
       </c>
       <c r="D300" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E300" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F300">
         <v>7.3460000000000001</v>
@@ -14425,10 +14427,10 @@
         <v>42944</v>
       </c>
       <c r="D301" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E301" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F301">
         <v>7.2409999999999997</v>
@@ -14466,10 +14468,10 @@
         <v>42945</v>
       </c>
       <c r="D302" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E302" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F302">
         <v>7.3550000000000004</v>
@@ -14507,10 +14509,10 @@
         <v>42945</v>
       </c>
       <c r="D303" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E303" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F303">
         <v>7.8739999999999997</v>
@@ -14548,10 +14550,10 @@
         <v>42940</v>
       </c>
       <c r="D304" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E304" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F304">
         <v>7.4850000000000003</v>
@@ -14589,10 +14591,10 @@
         <v>42940</v>
       </c>
       <c r="D305" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E305" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F305">
         <v>8.3379999999999992</v>
@@ -14630,10 +14632,10 @@
         <v>42940</v>
       </c>
       <c r="D306" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E306" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F306">
         <v>7.91</v>
@@ -14671,10 +14673,10 @@
         <v>42940</v>
       </c>
       <c r="D307" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E307" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F307">
         <v>8.0399999999999991</v>
@@ -14712,10 +14714,10 @@
         <v>42940</v>
       </c>
       <c r="D308" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E308" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F308">
         <v>7.718</v>
@@ -14753,10 +14755,10 @@
         <v>42940</v>
       </c>
       <c r="D309" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E309" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F309">
         <v>7.5439999999999996</v>
@@ -14794,10 +14796,10 @@
         <v>42940</v>
       </c>
       <c r="D310" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E310" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F310">
         <v>7.7409999999999997</v>
@@ -14835,10 +14837,10 @@
         <v>42940</v>
       </c>
       <c r="D311" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E311" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F311">
         <v>7.5170000000000003</v>
@@ -14876,10 +14878,10 @@
         <v>42940</v>
       </c>
       <c r="D312" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E312" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F312">
         <v>7.5330000000000004</v>
@@ -14917,10 +14919,10 @@
         <v>42940</v>
       </c>
       <c r="D313" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E313" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F313">
         <v>7.82</v>
@@ -14958,10 +14960,10 @@
         <v>42940</v>
       </c>
       <c r="D314" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E314" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F314">
         <v>7.508</v>
@@ -14999,10 +15001,10 @@
         <v>42940</v>
       </c>
       <c r="D315" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E315" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F315">
         <v>7.8920000000000003</v>
@@ -15040,10 +15042,10 @@
         <v>42940</v>
       </c>
       <c r="D316" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E316" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F316">
         <v>7.649</v>
@@ -15081,10 +15083,10 @@
         <v>42940</v>
       </c>
       <c r="D317" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E317" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F317">
         <v>7.9009999999999998</v>
@@ -15122,10 +15124,10 @@
         <v>42940</v>
       </c>
       <c r="D318" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E318" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F318">
         <v>7.5030000000000001</v>
@@ -15163,10 +15165,10 @@
         <v>42940</v>
       </c>
       <c r="D319" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E319" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F319">
         <v>7.6139999999999999</v>
@@ -15204,10 +15206,10 @@
         <v>42940</v>
       </c>
       <c r="D320" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E320" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F320">
         <v>7.92</v>
@@ -15245,10 +15247,10 @@
         <v>42941</v>
       </c>
       <c r="D321" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E321" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F321">
         <v>7.91</v>
@@ -15286,10 +15288,10 @@
         <v>42941</v>
       </c>
       <c r="D322" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E322" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F322">
         <v>7.63</v>
@@ -15327,10 +15329,10 @@
         <v>42941</v>
       </c>
       <c r="D323" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E323" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F323">
         <v>7.7990000000000004</v>
@@ -15368,10 +15370,10 @@
         <v>42941</v>
       </c>
       <c r="D324" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E324" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F324">
         <v>7.8419999999999996</v>
@@ -15409,10 +15411,10 @@
         <v>42941</v>
       </c>
       <c r="D325" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E325" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F325">
         <v>7.7969999999999997</v>
@@ -15450,10 +15452,10 @@
         <v>42941</v>
       </c>
       <c r="D326" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E326" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F326">
         <v>8.0399999999999991</v>
@@ -15491,10 +15493,10 @@
         <v>42941</v>
       </c>
       <c r="D327" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E327" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F327">
         <v>7.63</v>
@@ -15526,10 +15528,10 @@
         <v>325</v>
       </c>
       <c r="D328" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E328" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
@@ -15543,10 +15545,10 @@
         <v>42941</v>
       </c>
       <c r="D329" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E329" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F329">
         <v>7.56</v>
@@ -15584,10 +15586,10 @@
         <v>42941</v>
       </c>
       <c r="D330" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E330" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F330">
         <v>7.617</v>
@@ -15625,10 +15627,10 @@
         <v>42941</v>
       </c>
       <c r="D331" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E331" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F331">
         <v>7.5030000000000001</v>
@@ -15666,10 +15668,10 @@
         <v>42941</v>
       </c>
       <c r="D332" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E332" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F332">
         <v>7.6779999999999999</v>
@@ -15707,10 +15709,10 @@
         <v>42941</v>
       </c>
       <c r="D333" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E333" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F333">
         <v>7.774</v>
@@ -15748,10 +15750,10 @@
         <v>42942</v>
       </c>
       <c r="D334" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E334" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F334">
         <v>7.7249999999999996</v>
@@ -15783,10 +15785,10 @@
         <v>332</v>
       </c>
       <c r="D335" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E335" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
@@ -15800,10 +15802,10 @@
         <v>42942</v>
       </c>
       <c r="D336" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E336" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F336">
         <v>7.86</v>
@@ -15841,10 +15843,10 @@
         <v>42942</v>
       </c>
       <c r="D337" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E337" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F337">
         <v>7.67</v>
@@ -15882,10 +15884,10 @@
         <v>42942</v>
       </c>
       <c r="D338" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E338" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F338">
         <v>7.7389999999999999</v>
@@ -15923,10 +15925,10 @@
         <v>42942</v>
       </c>
       <c r="D339" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E339" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F339">
         <v>7.97</v>
@@ -15964,10 +15966,10 @@
         <v>42942</v>
       </c>
       <c r="D340" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E340" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F340">
         <v>7.8330000000000002</v>
@@ -15999,10 +16001,10 @@
         <v>338</v>
       </c>
       <c r="D341" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E341" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
@@ -16016,10 +16018,10 @@
         <v>42942</v>
       </c>
       <c r="D342" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E342" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F342">
         <v>7.94</v>
@@ -16057,10 +16059,10 @@
         <v>42942</v>
       </c>
       <c r="D343" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E343" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F343">
         <v>7.9089999999999998</v>
@@ -16098,10 +16100,10 @@
         <v>42942</v>
       </c>
       <c r="D344" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E344" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F344">
         <v>9.6809999999999992</v>
@@ -16133,10 +16135,10 @@
         <v>342</v>
       </c>
       <c r="D345" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E345" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
@@ -16144,10 +16146,10 @@
         <v>343</v>
       </c>
       <c r="D346" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E346" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
@@ -16161,10 +16163,10 @@
         <v>42942</v>
       </c>
       <c r="D347" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E347" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F347">
         <v>7.7649999999999997</v>
@@ -16202,10 +16204,10 @@
         <v>42942</v>
       </c>
       <c r="D348" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E348" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F348">
         <v>7.8090000000000002</v>
@@ -16243,10 +16245,10 @@
         <v>42942</v>
       </c>
       <c r="D349" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E349" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F349">
         <v>7.7679999999999998</v>
@@ -16284,10 +16286,10 @@
         <v>42942</v>
       </c>
       <c r="D350" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E350" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F350">
         <v>7.8760000000000003</v>
@@ -16319,10 +16321,10 @@
         <v>348</v>
       </c>
       <c r="D351" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E351" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -16336,10 +16338,10 @@
         <v>42942</v>
       </c>
       <c r="D352" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E352" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F352">
         <v>7.8540000000000001</v>
@@ -16377,10 +16379,10 @@
         <v>42942</v>
       </c>
       <c r="D353" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E353" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F353">
         <v>7.5309999999999997</v>
@@ -16418,10 +16420,10 @@
         <v>42942</v>
       </c>
       <c r="D354" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E354" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F354">
         <v>7.5179999999999998</v>
@@ -16459,10 +16461,10 @@
         <v>42943</v>
       </c>
       <c r="D355" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E355" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F355">
         <v>7.9749999999999996</v>
@@ -16500,10 +16502,10 @@
         <v>42943</v>
       </c>
       <c r="D356" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E356" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F356">
         <v>7.7489999999999997</v>
@@ -16541,10 +16543,10 @@
         <v>42943</v>
       </c>
       <c r="D357" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E357" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F357">
         <v>7.6719999999999997</v>
@@ -16576,10 +16578,10 @@
         <v>355</v>
       </c>
       <c r="D358" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E358" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
@@ -16593,10 +16595,10 @@
         <v>42943</v>
       </c>
       <c r="D359" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E359" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F359">
         <v>7.6859999999999999</v>
@@ -16634,10 +16636,10 @@
         <v>42943</v>
       </c>
       <c r="D360" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E360" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F360">
         <v>7.6070000000000002</v>
@@ -16675,10 +16677,10 @@
         <v>42943</v>
       </c>
       <c r="D361" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E361" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F361">
         <v>7.6529999999999996</v>
@@ -16716,10 +16718,10 @@
         <v>42943</v>
       </c>
       <c r="D362" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E362" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F362">
         <v>7.7560000000000002</v>
@@ -16757,10 +16759,10 @@
         <v>42943</v>
       </c>
       <c r="D363" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E363" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F363">
         <v>7.6189999999999998</v>
@@ -16798,10 +16800,10 @@
         <v>42951</v>
       </c>
       <c r="D364" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E364" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F364">
         <v>7.5229999999999997</v>
@@ -16839,10 +16841,10 @@
         <v>42952</v>
       </c>
       <c r="D365" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E365" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F365">
         <v>7.694</v>
@@ -16874,10 +16876,10 @@
         <v>363</v>
       </c>
       <c r="D366" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E366" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
@@ -16885,10 +16887,10 @@
         <v>364</v>
       </c>
       <c r="D367" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E367" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
@@ -16896,10 +16898,10 @@
         <v>365</v>
       </c>
       <c r="D368" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E368" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
@@ -16907,10 +16909,10 @@
         <v>366</v>
       </c>
       <c r="D369" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E369" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
@@ -16918,10 +16920,10 @@
         <v>367</v>
       </c>
       <c r="D370" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E370" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
@@ -16929,10 +16931,10 @@
         <v>368</v>
       </c>
       <c r="D371" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E371" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
@@ -16940,10 +16942,10 @@
         <v>369</v>
       </c>
       <c r="D372" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E372" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -16951,10 +16953,10 @@
         <v>370</v>
       </c>
       <c r="D373" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E373" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -16962,10 +16964,10 @@
         <v>371</v>
       </c>
       <c r="D374" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E374" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
@@ -16973,10 +16975,10 @@
         <v>372</v>
       </c>
       <c r="D375" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E375" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
@@ -16984,10 +16986,10 @@
         <v>373</v>
       </c>
       <c r="D376" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E376" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.25">
@@ -17001,10 +17003,10 @@
         <v>42952</v>
       </c>
       <c r="D377" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E377" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F377">
         <v>7.8109999999999999</v>
@@ -17042,10 +17044,10 @@
         <v>42952</v>
       </c>
       <c r="D378" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E378" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F378">
         <v>7.5979999999999999</v>
@@ -17083,10 +17085,10 @@
         <v>42952</v>
       </c>
       <c r="D379" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E379" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F379">
         <v>7.835</v>
@@ -17124,10 +17126,10 @@
         <v>42952</v>
       </c>
       <c r="D380" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E380" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F380">
         <v>8.67</v>
@@ -17165,10 +17167,10 @@
         <v>42952</v>
       </c>
       <c r="D381" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E381" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F381">
         <v>7.7930000000000001</v>
@@ -17206,10 +17208,10 @@
         <v>42952</v>
       </c>
       <c r="D382" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E382" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F382">
         <v>7.9020000000000001</v>
@@ -17247,10 +17249,10 @@
         <v>42952</v>
       </c>
       <c r="D383" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E383" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F383">
         <v>8.2390000000000008</v>
@@ -17288,10 +17290,10 @@
         <v>42952</v>
       </c>
       <c r="D384" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E384" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F384">
         <v>7.9619999999999997</v>
@@ -17329,10 +17331,10 @@
         <v>42952</v>
       </c>
       <c r="D385" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E385" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F385">
         <v>8.14</v>
@@ -17370,10 +17372,10 @@
         <v>42952</v>
       </c>
       <c r="D386" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E386" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F386">
         <v>7.4290000000000003</v>
@@ -17411,10 +17413,10 @@
         <v>42952</v>
       </c>
       <c r="D387" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E387" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F387">
         <v>8.0129999999999999</v>
@@ -17452,10 +17454,10 @@
         <v>42952</v>
       </c>
       <c r="D388" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E388" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F388">
         <v>7.6929999999999996</v>
@@ -17493,10 +17495,10 @@
         <v>42952</v>
       </c>
       <c r="D389" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E389" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F389">
         <v>7.9290000000000003</v>
@@ -17534,10 +17536,10 @@
         <v>42952</v>
       </c>
       <c r="D390" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E390" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F390">
         <v>7.625</v>
@@ -17575,10 +17577,10 @@
         <v>42952</v>
       </c>
       <c r="D391" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E391" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F391">
         <v>7.9489999999999998</v>
@@ -17616,10 +17618,10 @@
         <v>42952</v>
       </c>
       <c r="D392" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E392" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F392">
         <v>7.9550000000000001</v>
@@ -17657,10 +17659,10 @@
         <v>42952</v>
       </c>
       <c r="D393" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E393" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F393">
         <v>8.3119999999999994</v>
@@ -17698,10 +17700,10 @@
         <v>42952</v>
       </c>
       <c r="D394" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E394" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F394">
         <v>8.0980000000000008</v>
@@ -17739,10 +17741,10 @@
         <v>42952</v>
       </c>
       <c r="D395" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E395" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F395">
         <v>7.3630000000000004</v>
@@ -17780,10 +17782,10 @@
         <v>42953</v>
       </c>
       <c r="D396" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E396" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F396">
         <v>8.0589999999999993</v>
@@ -17821,10 +17823,10 @@
         <v>42953</v>
       </c>
       <c r="D397" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E397" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F397">
         <v>8.1010000000000009</v>
@@ -17862,10 +17864,10 @@
         <v>42953</v>
       </c>
       <c r="D398" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E398" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F398">
         <v>7.5629999999999997</v>
@@ -17903,10 +17905,10 @@
         <v>42953</v>
       </c>
       <c r="D399" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E399" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F399">
         <v>8.07</v>
@@ -17944,10 +17946,10 @@
         <v>42953</v>
       </c>
       <c r="D400" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E400" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F400">
         <v>8.3680000000000003</v>
@@ -17985,10 +17987,10 @@
         <v>42953</v>
       </c>
       <c r="D401" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E401" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F401">
         <v>8.2309999999999999</v>
@@ -18026,10 +18028,10 @@
         <v>42953</v>
       </c>
       <c r="D402" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E402" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F402">
         <v>7.9349999999999996</v>
@@ -18067,10 +18069,10 @@
         <v>42953</v>
       </c>
       <c r="D403" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E403" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F403">
         <v>7.9080000000000004</v>
@@ -18108,10 +18110,10 @@
         <v>42948</v>
       </c>
       <c r="D404" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E404" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F404">
         <v>7.5389999999999997</v>
@@ -18149,16 +18151,16 @@
         <v>42956</v>
       </c>
       <c r="D405" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E405" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F405">
         <v>8.1590000000000007</v>
       </c>
       <c r="G405" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H405">
         <v>28.556000000000001</v>
@@ -18193,16 +18195,16 @@
         <v>42948</v>
       </c>
       <c r="D406" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E406" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F406">
         <v>8.1590000000000007</v>
       </c>
       <c r="G406" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H406">
         <v>34.088000000000001</v>
@@ -18237,10 +18239,10 @@
         <v>42948</v>
       </c>
       <c r="D407" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E407" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F407">
         <v>7.95</v>
@@ -18278,10 +18280,10 @@
         <v>42948</v>
       </c>
       <c r="D408" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E408" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F408">
         <v>8.1630000000000003</v>
@@ -18319,10 +18321,10 @@
         <v>42948</v>
       </c>
       <c r="D409" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E409" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F409">
         <v>8.2520000000000007</v>
@@ -18360,10 +18362,10 @@
         <v>42948</v>
       </c>
       <c r="D410" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E410" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F410">
         <v>7.7889999999999997</v>
@@ -18401,10 +18403,10 @@
         <v>42948</v>
       </c>
       <c r="D411" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E411" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F411">
         <v>7.5960000000000001</v>
@@ -18442,10 +18444,10 @@
         <v>42948</v>
       </c>
       <c r="D412" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E412" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F412">
         <v>7.9950000000000001</v>
@@ -18483,10 +18485,10 @@
         <v>42948</v>
       </c>
       <c r="D413" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E413" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F413">
         <v>8.016</v>
@@ -18524,10 +18526,10 @@
         <v>42948</v>
       </c>
       <c r="D414" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E414" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F414">
         <v>7.27</v>
@@ -18565,16 +18567,16 @@
         <v>42948</v>
       </c>
       <c r="D415" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E415" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F415">
         <v>7.234</v>
       </c>
       <c r="G415" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H415">
         <v>29.334</v>
@@ -18609,16 +18611,16 @@
         <v>42956</v>
       </c>
       <c r="D416" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E416" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F416">
         <v>7.7469999999999999</v>
       </c>
       <c r="G416" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H416">
         <v>32.549999999999997</v>
@@ -18653,16 +18655,16 @@
         <v>42948</v>
       </c>
       <c r="D417" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E417" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F417">
         <v>7.8620000000000001</v>
       </c>
       <c r="G417" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H417">
         <v>26.936</v>
@@ -18697,16 +18699,16 @@
         <v>42956</v>
       </c>
       <c r="D418" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E418" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F418">
         <v>7.7060000000000004</v>
       </c>
       <c r="G418" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H418">
         <v>26.463000000000001</v>
@@ -18741,10 +18743,10 @@
         <v>42948</v>
       </c>
       <c r="D419" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E419" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F419">
         <v>8.1479999999999997</v>
@@ -18782,10 +18784,10 @@
         <v>42948</v>
       </c>
       <c r="D420" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E420" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F420">
         <v>8.327</v>
@@ -18823,10 +18825,10 @@
         <v>42948</v>
       </c>
       <c r="D421" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E421" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F421">
         <v>8.0459999999999994</v>
@@ -18864,10 +18866,10 @@
         <v>42948</v>
       </c>
       <c r="D422" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E422" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F422">
         <v>7.5270000000000001</v>
@@ -18905,10 +18907,10 @@
         <v>42948</v>
       </c>
       <c r="D423" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E423" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F423">
         <v>7.8120000000000003</v>
@@ -18946,10 +18948,10 @@
         <v>42948</v>
       </c>
       <c r="D424" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E424" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F424">
         <v>8.6170000000000009</v>
@@ -18987,10 +18989,10 @@
         <v>42948</v>
       </c>
       <c r="D425" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E425" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F425">
         <v>7.7169999999999996</v>
@@ -19028,10 +19030,10 @@
         <v>42948</v>
       </c>
       <c r="D426" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E426" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F426">
         <v>9.3469999999999995</v>
@@ -19069,10 +19071,10 @@
         <v>42948</v>
       </c>
       <c r="D427" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E427" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F427">
         <v>8.0079999999999991</v>
@@ -19110,10 +19112,10 @@
         <v>42948</v>
       </c>
       <c r="D428" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E428" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F428">
         <v>7.6109999999999998</v>
@@ -19151,10 +19153,10 @@
         <v>42948</v>
       </c>
       <c r="D429" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E429" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F429">
         <v>7.8860000000000001</v>
@@ -19192,10 +19194,10 @@
         <v>42948</v>
       </c>
       <c r="D430" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E430" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F430">
         <v>8.0350000000000001</v>
@@ -19233,10 +19235,10 @@
         <v>42948</v>
       </c>
       <c r="D431" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E431" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F431">
         <v>7.5439999999999996</v>
@@ -19274,10 +19276,10 @@
         <v>42948</v>
       </c>
       <c r="D432" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E432" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F432">
         <v>8.0340000000000007</v>
@@ -19315,10 +19317,10 @@
         <v>42948</v>
       </c>
       <c r="D433" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E433" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F433">
         <v>7.9640000000000004</v>
@@ -19356,10 +19358,10 @@
         <v>42948</v>
       </c>
       <c r="D434" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E434" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F434">
         <v>8.2739999999999991</v>
@@ -19397,10 +19399,10 @@
         <v>42948</v>
       </c>
       <c r="D435" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E435" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F435">
         <v>8.0069999999999997</v>
@@ -19438,16 +19440,16 @@
         <v>42948</v>
       </c>
       <c r="D436" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E436" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F436">
         <v>7.3010000000000002</v>
       </c>
       <c r="G436" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H436">
         <v>28.719000000000001</v>
@@ -19482,16 +19484,16 @@
         <v>42956</v>
       </c>
       <c r="D437" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E437" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F437">
         <v>7.7649999999999997</v>
       </c>
       <c r="G437" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H437">
         <v>28.242000000000001</v>
@@ -19526,10 +19528,10 @@
         <v>42953</v>
       </c>
       <c r="D438" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E438" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F438">
         <v>7.2859999999999996</v>
@@ -19567,10 +19569,10 @@
         <v>42953</v>
       </c>
       <c r="D439" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E439" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F439">
         <v>8.1590000000000007</v>
@@ -19608,10 +19610,10 @@
         <v>42953</v>
       </c>
       <c r="D440" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E440" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F440">
         <v>7.8840000000000003</v>
@@ -19649,10 +19651,10 @@
         <v>42953</v>
       </c>
       <c r="D441" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E441" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F441">
         <v>7.7450000000000001</v>
@@ -19690,10 +19692,10 @@
         <v>42953</v>
       </c>
       <c r="D442" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E442" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F442">
         <v>8.0220000000000002</v>
@@ -19731,10 +19733,10 @@
         <v>42953</v>
       </c>
       <c r="D443" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E443" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F443">
         <v>7.681</v>
@@ -19772,10 +19774,10 @@
         <v>42953</v>
       </c>
       <c r="D444" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E444" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F444">
         <v>7.5830000000000002</v>
@@ -19813,10 +19815,10 @@
         <v>42953</v>
       </c>
       <c r="D445" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E445" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F445">
         <v>8.3030000000000008</v>
@@ -19854,10 +19856,10 @@
         <v>42953</v>
       </c>
       <c r="D446" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E446" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F446">
         <v>7.6360000000000001</v>
@@ -19895,10 +19897,10 @@
         <v>42953</v>
       </c>
       <c r="D447" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E447" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F447">
         <v>7.68</v>
@@ -19936,10 +19938,10 @@
         <v>42953</v>
       </c>
       <c r="D448" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E448" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F448">
         <v>8.4969999999999999</v>
@@ -19977,10 +19979,10 @@
         <v>42953</v>
       </c>
       <c r="D449" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E449" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F449">
         <v>7.6630000000000003</v>
@@ -20018,10 +20020,10 @@
         <v>42953</v>
       </c>
       <c r="D450" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E450" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F450">
         <v>9.1349999999999998</v>
@@ -20059,10 +20061,10 @@
         <v>42953</v>
       </c>
       <c r="D451" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E451" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F451">
         <v>7.5049999999999999</v>
@@ -20100,10 +20102,10 @@
         <v>42953</v>
       </c>
       <c r="D452" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E452" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F452">
         <v>7.6760000000000002</v>
@@ -20141,10 +20143,10 @@
         <v>42953</v>
       </c>
       <c r="D453" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E453" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F453">
         <v>7.5720000000000001</v>
@@ -20182,10 +20184,10 @@
         <v>42953</v>
       </c>
       <c r="D454" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E454" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F454">
         <v>7.5490000000000004</v>
@@ -20223,10 +20225,10 @@
         <v>42953</v>
       </c>
       <c r="D455" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E455" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F455">
         <v>7.883</v>
@@ -20264,10 +20266,10 @@
         <v>42953</v>
       </c>
       <c r="D456" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E456" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F456">
         <v>7.6120000000000001</v>
@@ -20305,10 +20307,10 @@
         <v>42953</v>
       </c>
       <c r="D457" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E457" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F457">
         <v>9.1180000000000003</v>
@@ -20346,10 +20348,10 @@
         <v>42953</v>
       </c>
       <c r="D458" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E458" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F458">
         <v>9.2409999999999997</v>
@@ -20387,10 +20389,10 @@
         <v>42953</v>
       </c>
       <c r="D459" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E459" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F459">
         <v>8.0969999999999995</v>
@@ -20428,10 +20430,10 @@
         <v>42953</v>
       </c>
       <c r="D460" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E460" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F460">
         <v>8.5150000000000006</v>
@@ -20469,10 +20471,10 @@
         <v>42953</v>
       </c>
       <c r="D461" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E461" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F461">
         <v>7.702</v>
@@ -20510,10 +20512,10 @@
         <v>42953</v>
       </c>
       <c r="D462" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E462" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F462">
         <v>9.625</v>
@@ -20551,10 +20553,10 @@
         <v>42953</v>
       </c>
       <c r="D463" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E463" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F463">
         <v>7.91</v>
@@ -20592,10 +20594,10 @@
         <v>42953</v>
       </c>
       <c r="D464" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E464" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F464">
         <v>7.2519999999999998</v>
@@ -20633,10 +20635,10 @@
         <v>42953</v>
       </c>
       <c r="D465" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E465" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F465">
         <v>7.25</v>
@@ -20674,10 +20676,10 @@
         <v>42953</v>
       </c>
       <c r="D466" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E466" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F466">
         <v>8.1259999999999994</v>
@@ -20715,10 +20717,10 @@
         <v>42953</v>
       </c>
       <c r="D467" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E467" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F467">
         <v>8.1370000000000005</v>
@@ -20756,10 +20758,10 @@
         <v>42953</v>
       </c>
       <c r="D468" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E468" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F468">
         <v>7.8840000000000003</v>
@@ -20797,10 +20799,10 @@
         <v>42953</v>
       </c>
       <c r="D469" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E469" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F469">
         <v>8.6760000000000002</v>
@@ -20838,10 +20840,10 @@
         <v>42955</v>
       </c>
       <c r="D470" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E470" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F470">
         <v>7.8380000000000001</v>
@@ -20879,10 +20881,10 @@
         <v>42955</v>
       </c>
       <c r="D471" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E471" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F471">
         <v>7.6040000000000001</v>
@@ -20920,10 +20922,10 @@
         <v>42955</v>
       </c>
       <c r="D472" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E472" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F472">
         <v>7.7640000000000002</v>
@@ -20961,10 +20963,10 @@
         <v>42955</v>
       </c>
       <c r="D473" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E473" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F473">
         <v>7.4370000000000003</v>
@@ -21002,10 +21004,10 @@
         <v>42955</v>
       </c>
       <c r="D474" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E474" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F474">
         <v>7.6680000000000001</v>
@@ -21043,10 +21045,10 @@
         <v>42955</v>
       </c>
       <c r="D475" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E475" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F475">
         <v>7.9240000000000004</v>
@@ -21084,10 +21086,10 @@
         <v>42955</v>
       </c>
       <c r="D476" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E476" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F476">
         <v>7.9710000000000001</v>
@@ -21125,10 +21127,10 @@
         <v>42955</v>
       </c>
       <c r="D477" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E477" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F477">
         <v>8.109</v>
@@ -21166,10 +21168,10 @@
         <v>42955</v>
       </c>
       <c r="D478" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E478" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F478">
         <v>8.1029999999999998</v>
@@ -21207,10 +21209,10 @@
         <v>42955</v>
       </c>
       <c r="D479" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E479" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F479">
         <v>7.4729999999999999</v>
@@ -21248,10 +21250,10 @@
         <v>42955</v>
       </c>
       <c r="D480" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E480" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F480">
         <v>7.4660000000000002</v>
@@ -21289,10 +21291,10 @@
         <v>42955</v>
       </c>
       <c r="D481" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E481" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F481">
         <v>7.367</v>
@@ -21330,10 +21332,10 @@
         <v>42955</v>
       </c>
       <c r="D482" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E482" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F482">
         <v>7.3650000000000002</v>
@@ -21371,10 +21373,10 @@
         <v>42955</v>
       </c>
       <c r="D483" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E483" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F483">
         <v>7.7030000000000003</v>
@@ -21412,10 +21414,10 @@
         <v>42955</v>
       </c>
       <c r="D484" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E484" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F484">
         <v>8.3949999999999996</v>
@@ -21453,10 +21455,10 @@
         <v>42955</v>
       </c>
       <c r="D485" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E485" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F485">
         <v>7.6429999999999998</v>
@@ -21494,10 +21496,10 @@
         <v>42955</v>
       </c>
       <c r="D486" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E486" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F486">
         <v>7.3090000000000002</v>
@@ -21535,10 +21537,10 @@
         <v>42955</v>
       </c>
       <c r="D487" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E487" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F487">
         <v>7.649</v>
@@ -21576,10 +21578,10 @@
         <v>42955</v>
       </c>
       <c r="D488" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E488" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F488">
         <v>7.7770000000000001</v>
@@ -21617,10 +21619,10 @@
         <v>42955</v>
       </c>
       <c r="D489" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E489" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F489">
         <v>7.3680000000000003</v>
@@ -21658,10 +21660,10 @@
         <v>42955</v>
       </c>
       <c r="D490" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E490" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F490">
         <v>7.5720000000000001</v>
@@ -21699,10 +21701,10 @@
         <v>42955</v>
       </c>
       <c r="D491" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E491" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F491">
         <v>8.4120000000000008</v>
@@ -21740,10 +21742,10 @@
         <v>42955</v>
       </c>
       <c r="D492" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E492" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F492">
         <v>7.7779999999999996</v>
@@ -21781,10 +21783,10 @@
         <v>42955</v>
       </c>
       <c r="D493" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E493" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F493">
         <v>8.0329999999999995</v>
@@ -21822,10 +21824,10 @@
         <v>42956</v>
       </c>
       <c r="D494" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E494" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F494">
         <v>7.7770000000000001</v>
@@ -21863,10 +21865,10 @@
         <v>42956</v>
       </c>
       <c r="D495" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E495" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F495">
         <v>7.4710000000000001</v>
@@ -21904,10 +21906,10 @@
         <v>42956</v>
       </c>
       <c r="D496" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E496" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F496">
         <v>8.3000000000000007</v>
@@ -21945,10 +21947,10 @@
         <v>42956</v>
       </c>
       <c r="D497" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E497" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F497">
         <v>8</v>
@@ -21986,10 +21988,10 @@
         <v>42956</v>
       </c>
       <c r="D498" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E498" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F498">
         <v>8.1219999999999999</v>
@@ -22027,10 +22029,10 @@
         <v>42956</v>
       </c>
       <c r="D499" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E499" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F499">
         <v>8.0920000000000005</v>
@@ -22068,10 +22070,10 @@
         <v>42956</v>
       </c>
       <c r="D500" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E500" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F500">
         <v>7.5549999999999997</v>
@@ -22109,10 +22111,10 @@
         <v>42956</v>
       </c>
       <c r="D501" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E501" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F501">
         <v>8.2769999999999992</v>
@@ -22150,10 +22152,10 @@
         <v>42956</v>
       </c>
       <c r="D502" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E502" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F502">
         <v>7.976</v>
@@ -22191,10 +22193,10 @@
         <v>42956</v>
       </c>
       <c r="D503" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E503" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F503">
         <v>7.5730000000000004</v>
@@ -22232,10 +22234,10 @@
         <v>42956</v>
       </c>
       <c r="D504" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E504" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F504">
         <v>7.64</v>
@@ -22273,10 +22275,10 @@
         <v>42956</v>
       </c>
       <c r="D505" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E505" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F505">
         <v>8.1859999999999999</v>
@@ -22314,10 +22316,10 @@
         <v>42956</v>
       </c>
       <c r="D506" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E506" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F506">
         <v>8.0549999999999997</v>
@@ -22355,10 +22357,10 @@
         <v>42956</v>
       </c>
       <c r="D507" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E507" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F507">
         <v>7.6790000000000003</v>
@@ -22396,10 +22398,10 @@
         <v>42956</v>
       </c>
       <c r="D508" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E508" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F508">
         <v>8.7729999999999997</v>
@@ -22437,10 +22439,10 @@
         <v>42956</v>
       </c>
       <c r="D509" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E509" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F509">
         <v>7.5720000000000001</v>
@@ -22478,10 +22480,10 @@
         <v>42956</v>
       </c>
       <c r="D510" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E510" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F510">
         <v>7.6219999999999999</v>
@@ -22519,10 +22521,10 @@
         <v>42947</v>
       </c>
       <c r="D511" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E511" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F511">
         <v>8.3680000000000003</v>
@@ -22560,10 +22562,10 @@
         <v>42947</v>
       </c>
       <c r="D512" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E512" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F512">
         <v>7.585</v>
@@ -22601,10 +22603,10 @@
         <v>42947</v>
       </c>
       <c r="D513" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E513" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F513">
         <v>7.7560000000000002</v>
@@ -22642,10 +22644,10 @@
         <v>42947</v>
       </c>
       <c r="D514" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E514" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F514">
         <v>7.7380000000000004</v>
@@ -22683,10 +22685,10 @@
         <v>42947</v>
       </c>
       <c r="D515" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E515" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F515">
         <v>7.4009999999999998</v>
@@ -22724,10 +22726,10 @@
         <v>42947</v>
       </c>
       <c r="D516" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E516" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F516">
         <v>7.5140000000000002</v>
@@ -22765,10 +22767,10 @@
         <v>42947</v>
       </c>
       <c r="D517" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E517" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="F517">
         <v>7.7030000000000003</v>
@@ -22806,7 +22808,7 @@
         <v>42947</v>
       </c>
       <c r="D518" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E518" t="s">
         <v>117</v>
@@ -22847,7 +22849,7 @@
         <v>42947</v>
       </c>
       <c r="D519" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E519" t="s">
         <v>117</v>
@@ -22888,7 +22890,7 @@
         <v>42947</v>
       </c>
       <c r="D520" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E520" t="s">
         <v>117</v>
@@ -22929,7 +22931,7 @@
         <v>42947</v>
       </c>
       <c r="D521" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E521" t="s">
         <v>117</v>
@@ -22970,7 +22972,7 @@
         <v>42947</v>
       </c>
       <c r="D522" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E522" t="s">
         <v>117</v>
@@ -23011,7 +23013,7 @@
         <v>42947</v>
       </c>
       <c r="D523" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E523" t="s">
         <v>117</v>
@@ -23052,7 +23054,7 @@
         <v>42947</v>
       </c>
       <c r="D524" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E524" t="s">
         <v>117</v>
@@ -23093,7 +23095,7 @@
         <v>42947</v>
       </c>
       <c r="D525" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E525" t="s">
         <v>117</v>
@@ -23134,7 +23136,7 @@
         <v>42947</v>
       </c>
       <c r="D526" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E526" t="s">
         <v>117</v>
@@ -23175,7 +23177,7 @@
         <v>42947</v>
       </c>
       <c r="D527" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E527" t="s">
         <v>117</v>
@@ -23216,7 +23218,7 @@
         <v>42947</v>
       </c>
       <c r="D528" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E528" t="s">
         <v>117</v>
@@ -23257,7 +23259,7 @@
         <v>42947</v>
       </c>
       <c r="D529" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E529" t="s">
         <v>117</v>
@@ -23298,7 +23300,7 @@
         <v>42948</v>
       </c>
       <c r="D530" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E530" t="s">
         <v>117</v>
@@ -23339,7 +23341,7 @@
         <v>42948</v>
       </c>
       <c r="D531" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E531" t="s">
         <v>117</v>
@@ -23380,7 +23382,7 @@
         <v>42948</v>
       </c>
       <c r="D532" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E532" t="s">
         <v>117</v>
@@ -23421,7 +23423,7 @@
         <v>42948</v>
       </c>
       <c r="D533" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E533" t="s">
         <v>117</v>
@@ -23462,7 +23464,7 @@
         <v>42948</v>
       </c>
       <c r="D534" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E534" t="s">
         <v>117</v>
@@ -23503,7 +23505,7 @@
         <v>42948</v>
       </c>
       <c r="D535" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E535" t="s">
         <v>117</v>
@@ -23544,7 +23546,7 @@
         <v>42948</v>
       </c>
       <c r="D536" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E536" t="s">
         <v>117</v>
@@ -23585,7 +23587,7 @@
         <v>42948</v>
       </c>
       <c r="D537" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E537" t="s">
         <v>117</v>
@@ -23626,7 +23628,7 @@
         <v>42949</v>
       </c>
       <c r="D538" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E538" t="s">
         <v>117</v>
@@ -23667,10 +23669,10 @@
         <v>42949</v>
       </c>
       <c r="D539" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E539" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F539">
         <v>7.57</v>
@@ -23708,10 +23710,10 @@
         <v>42949</v>
       </c>
       <c r="D540" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E540" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F540">
         <v>7.62</v>
@@ -23749,10 +23751,10 @@
         <v>42949</v>
       </c>
       <c r="D541" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E541" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="F541">
         <v>7.165</v>
@@ -23790,10 +23792,10 @@
         <v>42949</v>
       </c>
       <c r="D542" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E542" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F542">
         <v>7.64</v>
@@ -23831,10 +23833,10 @@
         <v>42949</v>
       </c>
       <c r="D543" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E543" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F543">
         <v>7.6779999999999999</v>
@@ -23872,10 +23874,10 @@
         <v>42949</v>
       </c>
       <c r="D544" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E544" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F544">
         <v>7.5819999999999999</v>
@@ -23913,10 +23915,10 @@
         <v>42949</v>
       </c>
       <c r="D545" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E545" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F545">
         <v>7.7629999999999999</v>
@@ -23954,10 +23956,10 @@
         <v>42949</v>
       </c>
       <c r="D546" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E546" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F546">
         <v>7.39</v>
@@ -23995,10 +23997,10 @@
         <v>42949</v>
       </c>
       <c r="D547" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E547" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F547">
         <v>7.29</v>
@@ -24036,10 +24038,10 @@
         <v>42949</v>
       </c>
       <c r="D548" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E548" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F548">
         <v>7.2839999999999998</v>
@@ -24077,10 +24079,10 @@
         <v>42945</v>
       </c>
       <c r="D549" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E549" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F549">
         <v>7.87</v>
@@ -24118,10 +24120,10 @@
         <v>42945</v>
       </c>
       <c r="D550" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E550" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F550">
         <v>7.673</v>
@@ -24153,10 +24155,10 @@
         <v>544</v>
       </c>
       <c r="D551" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E551" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.25">
@@ -24170,10 +24172,10 @@
         <v>42945</v>
       </c>
       <c r="D552" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E552" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F552">
         <v>7.6520000000000001</v>
@@ -24211,10 +24213,10 @@
         <v>42945</v>
       </c>
       <c r="D553" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E553" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F553">
         <v>8.3309999999999995</v>
@@ -24252,10 +24254,10 @@
         <v>42945</v>
       </c>
       <c r="D554" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E554" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F554">
         <v>7.4349999999999996</v>
@@ -24293,10 +24295,10 @@
         <v>42945</v>
       </c>
       <c r="D555" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E555" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
       <c r="F555">
         <v>7.75</v>
@@ -24328,10 +24330,10 @@
         <v>549</v>
       </c>
       <c r="D556" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E556" t="s">
-        <v>239</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
